--- a/data_in/new_column_names.xlsx
+++ b/data_in/new_column_names.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Desktop\HW_LessonsCopy\BootCampHW\ETL-Project\data_in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767D06D7-3A4B-4999-9DD8-5FB54DCFAD9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D662E6A-CA5C-4502-B195-579B9EFF176D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5545A4E6-CF24-4151-87EE-D77B41C17330}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>pl_name</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>st_gravity</t>
+  </si>
+  <si>
+    <t>pl_insol</t>
   </si>
 </sst>
 </file>
@@ -454,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B882B422-0542-48EE-A406-0DB11ADC0DAE}">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,61 +540,66 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>23</v>
       </c>
     </row>
